--- a/reference/译码.xlsx
+++ b/reference/译码.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\ComputerOrganizationExperiment\verilog\Mips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F36D09-321F-4C0C-89B4-6BA998BCFC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA18497-1765-46C5-BEF2-E92856689F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11435" yWindow="24" windowWidth="11980" windowHeight="12488" xr2:uid="{6AE68DA8-D1D2-4E15-A3CC-A46167B1999A}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12827" xr2:uid="{6AE68DA8-D1D2-4E15-A3CC-A46167B1999A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -822,7 +822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,21 +877,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,65 +973,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,9 +1295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82B8DB5-5E7D-42C2-81B3-5109BCBD0712}">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34:E40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="A35:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1362,18 +1368,18 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1387,23 +1393,23 @@
       <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="20" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -1413,44 +1419,44 @@
       <c r="J3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="20">
         <v>1</v>
       </c>
-      <c r="M3" s="47">
-        <v>0</v>
-      </c>
-      <c r="N3" s="47">
-        <v>0</v>
-      </c>
-      <c r="O3" s="47">
-        <v>0</v>
-      </c>
-      <c r="P3" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="47">
-        <v>0</v>
-      </c>
-      <c r="R3" s="47">
-        <v>0</v>
-      </c>
-      <c r="S3" s="47">
+      <c r="M3" s="20">
+        <v>0</v>
+      </c>
+      <c r="N3" s="20">
+        <v>0</v>
+      </c>
+      <c r="O3" s="20">
+        <v>0</v>
+      </c>
+      <c r="P3" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>0</v>
+      </c>
+      <c r="R3" s="20">
+        <v>0</v>
+      </c>
+      <c r="S3" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="8" t="s">
         <v>46</v>
       </c>
@@ -1458,26 +1464,26 @@
       <c r="J4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="8" t="s">
         <v>47</v>
       </c>
@@ -1485,26 +1491,26 @@
       <c r="J5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="8" t="s">
         <v>48</v>
       </c>
@@ -1512,26 +1518,26 @@
       <c r="J6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="8" t="s">
         <v>49</v>
       </c>
@@ -1539,26 +1545,26 @@
       <c r="J7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="8" t="s">
         <v>50</v>
       </c>
@@ -1566,26 +1572,26 @@
       <c r="J8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="8" t="s">
         <v>51</v>
       </c>
@@ -1593,26 +1599,26 @@
       <c r="J9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="8" t="s">
         <v>52</v>
       </c>
@@ -1620,27 +1626,27 @@
       <c r="J10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1654,210 +1660,210 @@
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="20" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>44</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="20" t="s">
         <v>36</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="20">
         <v>1</v>
       </c>
-      <c r="M12" s="47">
-        <v>0</v>
-      </c>
-      <c r="N12" s="47">
-        <v>0</v>
-      </c>
-      <c r="O12" s="47">
-        <v>0</v>
-      </c>
-      <c r="P12" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="47">
-        <v>0</v>
-      </c>
-      <c r="R12" s="47">
-        <v>0</v>
-      </c>
-      <c r="S12" s="47">
+      <c r="M12" s="20">
+        <v>0</v>
+      </c>
+      <c r="N12" s="20">
+        <v>0</v>
+      </c>
+      <c r="O12" s="20">
+        <v>0</v>
+      </c>
+      <c r="P12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>0</v>
+      </c>
+      <c r="R12" s="20">
+        <v>0</v>
+      </c>
+      <c r="S12" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="47"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I14" s="9"/>
-      <c r="J14" s="47"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="47"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="8" t="s">
         <v>56</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="47"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="8" t="s">
         <v>57</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="47"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1871,98 +1877,100 @@
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="20" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="20" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="47" t="s">
+      <c r="J19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="47">
+      <c r="L19" s="20">
         <v>1</v>
       </c>
-      <c r="M19" s="47">
-        <v>0</v>
-      </c>
-      <c r="N19" s="47">
+      <c r="M19" s="20">
+        <v>0</v>
+      </c>
+      <c r="N19" s="20">
         <v>1</v>
       </c>
-      <c r="O19" s="47">
-        <v>0</v>
-      </c>
-      <c r="P19" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="47">
-        <v>0</v>
-      </c>
-      <c r="R19" s="47">
-        <v>0</v>
-      </c>
-      <c r="S19" s="47">
+      <c r="O19" s="20">
+        <v>0</v>
+      </c>
+      <c r="P19" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="20">
+        <v>0</v>
+      </c>
+      <c r="R19" s="20">
+        <v>0</v>
+      </c>
+      <c r="S19" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="47"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I20" s="9"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="51">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="46" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1976,165 +1984,165 @@
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="20" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>71</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="47" t="s">
+      <c r="J22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="47" t="s">
+      <c r="K22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="47">
+      <c r="L22" s="20">
         <v>1</v>
       </c>
-      <c r="M22" s="47">
-        <v>0</v>
-      </c>
-      <c r="N22" s="47">
-        <v>0</v>
-      </c>
-      <c r="O22" s="47">
-        <v>0</v>
-      </c>
-      <c r="P22" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="47">
-        <v>0</v>
-      </c>
-      <c r="R22" s="47">
-        <v>0</v>
-      </c>
-      <c r="S22" s="47">
+      <c r="M22" s="20">
+        <v>0</v>
+      </c>
+      <c r="N22" s="20">
+        <v>0</v>
+      </c>
+      <c r="O22" s="20">
+        <v>0</v>
+      </c>
+      <c r="P22" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="20">
+        <v>0</v>
+      </c>
+      <c r="R22" s="20">
+        <v>0</v>
+      </c>
+      <c r="S22" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="8" t="s">
         <v>72</v>
       </c>
       <c r="I23" s="9"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="41" t="s">
         <v>122</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="41" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="18" t="s">
+      <c r="J24" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="41">
         <v>1</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="41">
         <v>1</v>
       </c>
-      <c r="N24" s="18">
-        <v>0</v>
-      </c>
-      <c r="O24" s="18">
-        <v>0</v>
-      </c>
-      <c r="P24" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="18">
-        <v>0</v>
-      </c>
-      <c r="R24" s="18">
-        <v>0</v>
-      </c>
-      <c r="S24" s="18">
+      <c r="N24" s="41">
+        <v>0</v>
+      </c>
+      <c r="O24" s="41">
+        <v>0</v>
+      </c>
+      <c r="P24" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="41">
+        <v>0</v>
+      </c>
+      <c r="R24" s="41">
+        <v>0</v>
+      </c>
+      <c r="S24" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2143,83 +2151,85 @@
       <c r="C26" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="43" t="s">
+      <c r="J26" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="K26" s="43" t="s">
+      <c r="K26" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="43">
+      <c r="L26" s="34">
         <v>1</v>
       </c>
-      <c r="M26" s="43">
-        <v>0</v>
-      </c>
-      <c r="N26" s="43">
+      <c r="M26" s="34">
+        <v>0</v>
+      </c>
+      <c r="N26" s="34">
         <v>1</v>
       </c>
-      <c r="O26" s="43">
-        <v>0</v>
-      </c>
-      <c r="P26" s="43">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="43">
-        <v>0</v>
-      </c>
-      <c r="R26" s="43">
-        <v>0</v>
-      </c>
-      <c r="S26" s="43">
+      <c r="O26" s="34">
+        <v>0</v>
+      </c>
+      <c r="P26" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="34">
+        <v>0</v>
+      </c>
+      <c r="R26" s="34">
+        <v>0</v>
+      </c>
+      <c r="S26" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="50">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="41"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
       <c r="I28" s="3"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -2233,144 +2243,144 @@
       <c r="S28" s="6"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="21">
         <v>1</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="21">
         <v>1</v>
       </c>
-      <c r="N29" s="20">
-        <v>0</v>
-      </c>
-      <c r="O29" s="20">
-        <v>0</v>
-      </c>
-      <c r="P29" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="20">
-        <v>0</v>
-      </c>
-      <c r="R29" s="20">
-        <v>0</v>
-      </c>
-      <c r="S29" s="20">
+      <c r="N29" s="21">
+        <v>0</v>
+      </c>
+      <c r="O29" s="21">
+        <v>0</v>
+      </c>
+      <c r="P29" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="21">
+        <v>0</v>
+      </c>
+      <c r="R29" s="21">
+        <v>0</v>
+      </c>
+      <c r="S29" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="20" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="32"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="39" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="3"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -2384,194 +2394,194 @@
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="32"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
       <c r="I34" s="3"/>
       <c r="J34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L34" s="20">
-        <v>0</v>
-      </c>
-      <c r="M34" s="20">
-        <v>0</v>
-      </c>
-      <c r="N34" s="20">
-        <v>0</v>
-      </c>
-      <c r="O34" s="20">
-        <v>0</v>
-      </c>
-      <c r="P34" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="20">
-        <v>0</v>
-      </c>
-      <c r="R34" s="20">
+      <c r="L34" s="21">
+        <v>0</v>
+      </c>
+      <c r="M34" s="21">
+        <v>0</v>
+      </c>
+      <c r="N34" s="21">
+        <v>0</v>
+      </c>
+      <c r="O34" s="21">
+        <v>0</v>
+      </c>
+      <c r="P34" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="21">
+        <v>0</v>
+      </c>
+      <c r="R34" s="21">
         <v>1</v>
       </c>
-      <c r="S34" s="20">
+      <c r="S34" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="3"/>
       <c r="J35" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
       <c r="I36" s="3"/>
       <c r="J36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="35"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
       <c r="I37" s="3"/>
       <c r="J37" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
       <c r="I38" s="3"/>
       <c r="J38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="35"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="29"/>
       <c r="I39" s="3"/>
       <c r="J39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="49" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="18" t="s">
         <v>129</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -2580,10 +2590,10 @@
       <c r="D40" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="38"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="32"/>
       <c r="I40" s="3"/>
       <c r="J40" s="12" t="s">
         <v>36</v>
@@ -2591,26 +2601,26 @@
       <c r="K40" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="39" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="41"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="39"/>
       <c r="I41" s="3"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -2624,217 +2634,217 @@
       <c r="S41" s="6"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G42" s="31"/>
-      <c r="H42" s="32"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="42" t="s">
+      <c r="J42" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="K42" s="20" t="s">
+      <c r="K42" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="20">
-        <v>0</v>
-      </c>
-      <c r="M42" s="20">
-        <v>0</v>
-      </c>
-      <c r="N42" s="20">
-        <v>0</v>
-      </c>
-      <c r="O42" s="20" t="s">
+      <c r="L42" s="21">
+        <v>0</v>
+      </c>
+      <c r="M42" s="21">
+        <v>0</v>
+      </c>
+      <c r="N42" s="21">
+        <v>0</v>
+      </c>
+      <c r="O42" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="P42" s="20">
+      <c r="P42" s="21">
         <v>1</v>
       </c>
-      <c r="Q42" s="20">
-        <v>0</v>
-      </c>
-      <c r="R42" s="20">
+      <c r="Q42" s="21">
+        <v>0</v>
+      </c>
+      <c r="R42" s="21">
         <v>1</v>
       </c>
-      <c r="S42" s="20">
+      <c r="S42" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="35"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="35"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="29"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="35"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="29"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="35"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="35"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="38"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="32"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="39" t="s">
+      <c r="A49" s="22"/>
+      <c r="B49" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="41"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="39"/>
       <c r="I49" s="3"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -2848,155 +2858,155 @@
       <c r="S49" s="6"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="F50" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="31"/>
-      <c r="H50" s="32"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="26"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="20" t="s">
+      <c r="J50" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="K50" s="20" t="s">
+      <c r="K50" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L50" s="20">
-        <v>0</v>
-      </c>
-      <c r="M50" s="20">
-        <v>0</v>
-      </c>
-      <c r="N50" s="20">
-        <v>0</v>
-      </c>
-      <c r="O50" s="20">
-        <v>0</v>
-      </c>
-      <c r="P50" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="20">
+      <c r="L50" s="21">
+        <v>0</v>
+      </c>
+      <c r="M50" s="21">
+        <v>0</v>
+      </c>
+      <c r="N50" s="21">
+        <v>0</v>
+      </c>
+      <c r="O50" s="21">
+        <v>0</v>
+      </c>
+      <c r="P50" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="21">
         <v>1</v>
       </c>
-      <c r="R50" s="20">
+      <c r="R50" s="21">
         <v>1</v>
       </c>
-      <c r="S50" s="20">
+      <c r="S50" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="35"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="29"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="35"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="35"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="29"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="11" t="s">
         <v>113</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="38"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="32"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
@@ -3419,130 +3429,7 @@
       <c r="S74" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="G3:G10"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="F34:H40"/>
-    <mergeCell ref="E34:E40"/>
-    <mergeCell ref="S3:S10"/>
-    <mergeCell ref="K3:K10"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="L3:L10"/>
-    <mergeCell ref="M3:M10"/>
-    <mergeCell ref="O3:O10"/>
-    <mergeCell ref="P3:P10"/>
-    <mergeCell ref="Q3:Q10"/>
-    <mergeCell ref="R3:R10"/>
-    <mergeCell ref="N3:N10"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R12:R17"/>
-    <mergeCell ref="S12:S17"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="M12:M17"/>
-    <mergeCell ref="O12:O17"/>
-    <mergeCell ref="P12:P17"/>
-    <mergeCell ref="Q12:Q17"/>
-    <mergeCell ref="N12:N17"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="D26:H27"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="S29:S32"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="M29:M32"/>
-    <mergeCell ref="N29:N32"/>
-    <mergeCell ref="O29:O32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F29:H32"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="K34:K39"/>
-    <mergeCell ref="P29:P32"/>
-    <mergeCell ref="Q29:Q32"/>
-    <mergeCell ref="R29:R32"/>
-    <mergeCell ref="L34:L40"/>
-    <mergeCell ref="M34:M40"/>
-    <mergeCell ref="N34:N40"/>
-    <mergeCell ref="O34:O40"/>
-    <mergeCell ref="P34:P40"/>
-    <mergeCell ref="Q34:Q40"/>
-    <mergeCell ref="R34:R40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="F42:H48"/>
-    <mergeCell ref="J42:J48"/>
-    <mergeCell ref="K42:K48"/>
-    <mergeCell ref="L42:L48"/>
-    <mergeCell ref="M42:M48"/>
-    <mergeCell ref="N42:N48"/>
-    <mergeCell ref="S34:S40"/>
-    <mergeCell ref="F50:H54"/>
-    <mergeCell ref="J50:J54"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="L50:L54"/>
-    <mergeCell ref="O42:O48"/>
-    <mergeCell ref="P42:P48"/>
-    <mergeCell ref="Q42:Q48"/>
-    <mergeCell ref="R42:R48"/>
-    <mergeCell ref="S42:S48"/>
-    <mergeCell ref="B49:H49"/>
+  <mergeCells count="145">
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="P24:P25"/>
     <mergeCell ref="Q24:Q25"/>
@@ -3567,6 +3454,127 @@
     <mergeCell ref="R50:R54"/>
     <mergeCell ref="D50:D54"/>
     <mergeCell ref="E50:E54"/>
+    <mergeCell ref="S34:S40"/>
+    <mergeCell ref="F50:H54"/>
+    <mergeCell ref="J50:J54"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="L50:L54"/>
+    <mergeCell ref="O42:O48"/>
+    <mergeCell ref="P42:P48"/>
+    <mergeCell ref="Q42:Q48"/>
+    <mergeCell ref="R42:R48"/>
+    <mergeCell ref="S42:S48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="F42:H48"/>
+    <mergeCell ref="J42:J48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="L42:L48"/>
+    <mergeCell ref="M42:M48"/>
+    <mergeCell ref="N42:N48"/>
+    <mergeCell ref="K34:K39"/>
+    <mergeCell ref="P29:P32"/>
+    <mergeCell ref="Q29:Q32"/>
+    <mergeCell ref="R29:R32"/>
+    <mergeCell ref="L34:L40"/>
+    <mergeCell ref="M34:M40"/>
+    <mergeCell ref="N34:N40"/>
+    <mergeCell ref="O34:O40"/>
+    <mergeCell ref="P34:P40"/>
+    <mergeCell ref="Q34:Q40"/>
+    <mergeCell ref="R34:R40"/>
+    <mergeCell ref="S29:S32"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="M29:M32"/>
+    <mergeCell ref="N29:N32"/>
+    <mergeCell ref="O29:O32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F29:H32"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R12:R17"/>
+    <mergeCell ref="S12:S17"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="M12:M17"/>
+    <mergeCell ref="O12:O17"/>
+    <mergeCell ref="P12:P17"/>
+    <mergeCell ref="Q12:Q17"/>
+    <mergeCell ref="N12:N17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="S3:S10"/>
+    <mergeCell ref="K3:K10"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="L3:L10"/>
+    <mergeCell ref="M3:M10"/>
+    <mergeCell ref="O3:O10"/>
+    <mergeCell ref="P3:P10"/>
+    <mergeCell ref="Q3:Q10"/>
+    <mergeCell ref="R3:R10"/>
+    <mergeCell ref="N3:N10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="G3:G10"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="F34:H40"/>
+    <mergeCell ref="E34:E40"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="D26:H27"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="D34:D39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reference/译码.xlsx
+++ b/reference/译码.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\ComputerOrganizationExperiment\verilog\Mips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA18497-1765-46C5-BEF2-E92856689F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D130333B-1E0D-4476-ACBD-D28BE9E744FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12827" xr2:uid="{6AE68DA8-D1D2-4E15-A3CC-A46167B1999A}"/>
   </bookViews>
@@ -822,7 +822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,97 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,6 +888,99 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,9 +1298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82B8DB5-5E7D-42C2-81B3-5109BCBD0712}">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="A35:XFD37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1368,18 +1371,18 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1393,23 +1396,23 @@
       <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="50" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -1419,44 +1422,44 @@
       <c r="J3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="50">
         <v>1</v>
       </c>
-      <c r="M3" s="20">
-        <v>0</v>
-      </c>
-      <c r="N3" s="20">
-        <v>0</v>
-      </c>
-      <c r="O3" s="20">
-        <v>0</v>
-      </c>
-      <c r="P3" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="20">
-        <v>0</v>
-      </c>
-      <c r="R3" s="20">
-        <v>0</v>
-      </c>
-      <c r="S3" s="20">
+      <c r="M3" s="50">
+        <v>0</v>
+      </c>
+      <c r="N3" s="50">
+        <v>0</v>
+      </c>
+      <c r="O3" s="50">
+        <v>0</v>
+      </c>
+      <c r="P3" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="50">
+        <v>0</v>
+      </c>
+      <c r="R3" s="50">
+        <v>0</v>
+      </c>
+      <c r="S3" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="8" t="s">
         <v>46</v>
       </c>
@@ -1464,26 +1467,26 @@
       <c r="J4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="8" t="s">
         <v>47</v>
       </c>
@@ -1491,26 +1494,26 @@
       <c r="J5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="8" t="s">
         <v>48</v>
       </c>
@@ -1518,26 +1521,26 @@
       <c r="J6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="8" t="s">
         <v>49</v>
       </c>
@@ -1545,53 +1548,53 @@
       <c r="J7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="8" t="s">
         <v>50</v>
       </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
+      <c r="J8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="8" t="s">
         <v>51</v>
       </c>
@@ -1599,54 +1602,54 @@
       <c r="J9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="9"/>
-      <c r="J10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
+      <c r="J10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="52"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1660,210 +1663,210 @@
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="50" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>44</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="50" t="s">
         <v>36</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="50">
         <v>1</v>
       </c>
-      <c r="M12" s="20">
-        <v>0</v>
-      </c>
-      <c r="N12" s="20">
-        <v>0</v>
-      </c>
-      <c r="O12" s="20">
-        <v>0</v>
-      </c>
-      <c r="P12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>0</v>
-      </c>
-      <c r="R12" s="20">
-        <v>0</v>
-      </c>
-      <c r="S12" s="20">
+      <c r="M12" s="50">
+        <v>0</v>
+      </c>
+      <c r="N12" s="50">
+        <v>0</v>
+      </c>
+      <c r="O12" s="50">
+        <v>0</v>
+      </c>
+      <c r="P12" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="50">
+        <v>0</v>
+      </c>
+      <c r="R12" s="50">
+        <v>0</v>
+      </c>
+      <c r="S12" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="8" t="s">
         <v>53</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="20"/>
+      <c r="J13" s="50"/>
       <c r="K13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
       <c r="H14" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I14" s="9"/>
-      <c r="J14" s="20"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="20"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="8" t="s">
         <v>56</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="20"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="8" t="s">
         <v>57</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="20"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -1877,100 +1880,100 @@
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="50" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="50" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="50">
         <v>1</v>
       </c>
-      <c r="M19" s="20">
-        <v>0</v>
-      </c>
-      <c r="N19" s="20">
+      <c r="M19" s="50">
+        <v>0</v>
+      </c>
+      <c r="N19" s="50">
         <v>1</v>
       </c>
-      <c r="O19" s="20">
-        <v>0</v>
-      </c>
-      <c r="P19" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="20">
-        <v>0</v>
-      </c>
-      <c r="R19" s="20">
-        <v>0</v>
-      </c>
-      <c r="S19" s="51">
+      <c r="O19" s="50">
+        <v>0</v>
+      </c>
+      <c r="P19" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="50">
+        <v>0</v>
+      </c>
+      <c r="R19" s="50">
+        <v>0</v>
+      </c>
+      <c r="S19" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
       <c r="F20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I20" s="9"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="51">
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1984,165 +1987,165 @@
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="50" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>71</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="50">
         <v>1</v>
       </c>
-      <c r="M22" s="20">
-        <v>0</v>
-      </c>
-      <c r="N22" s="20">
-        <v>0</v>
-      </c>
-      <c r="O22" s="20">
-        <v>0</v>
-      </c>
-      <c r="P22" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="20">
-        <v>0</v>
-      </c>
-      <c r="R22" s="20">
-        <v>0</v>
-      </c>
-      <c r="S22" s="20">
+      <c r="M22" s="50">
+        <v>0</v>
+      </c>
+      <c r="N22" s="50">
+        <v>0</v>
+      </c>
+      <c r="O22" s="50">
+        <v>0</v>
+      </c>
+      <c r="P22" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="50">
+        <v>0</v>
+      </c>
+      <c r="R22" s="50">
+        <v>0</v>
+      </c>
+      <c r="S22" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="8" t="s">
         <v>72</v>
       </c>
       <c r="I23" s="9"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="22" t="s">
         <v>122</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="41" t="s">
+      <c r="J24" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="K24" s="41" t="s">
+      <c r="K24" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="22">
         <v>1</v>
       </c>
-      <c r="M24" s="41">
+      <c r="M24" s="22">
         <v>1</v>
       </c>
-      <c r="N24" s="41">
-        <v>0</v>
-      </c>
-      <c r="O24" s="41">
-        <v>0</v>
-      </c>
-      <c r="P24" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="41">
-        <v>0</v>
-      </c>
-      <c r="R24" s="41">
-        <v>0</v>
-      </c>
-      <c r="S24" s="41">
+      <c r="N24" s="22">
+        <v>0</v>
+      </c>
+      <c r="O24" s="22">
+        <v>0</v>
+      </c>
+      <c r="P24" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>0</v>
+      </c>
+      <c r="R24" s="22">
+        <v>0</v>
+      </c>
+      <c r="S24" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="48" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2151,85 +2154,85 @@
       <c r="C26" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="34" t="s">
+      <c r="J26" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="K26" s="34" t="s">
+      <c r="K26" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26" s="47">
         <v>1</v>
       </c>
-      <c r="M26" s="34">
-        <v>0</v>
-      </c>
-      <c r="N26" s="34">
+      <c r="M26" s="47">
+        <v>0</v>
+      </c>
+      <c r="N26" s="47">
         <v>1</v>
       </c>
-      <c r="O26" s="34">
-        <v>0</v>
-      </c>
-      <c r="P26" s="34">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="34">
-        <v>0</v>
-      </c>
-      <c r="R26" s="34">
-        <v>0</v>
-      </c>
-      <c r="S26" s="50">
+      <c r="O26" s="47">
+        <v>0</v>
+      </c>
+      <c r="P26" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="47">
+        <v>0</v>
+      </c>
+      <c r="R26" s="47">
+        <v>0</v>
+      </c>
+      <c r="S26" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="50">
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="45"/>
       <c r="I28" s="3"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -2243,144 +2246,144 @@
       <c r="S28" s="6"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="24">
         <v>1</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="24">
         <v>1</v>
       </c>
-      <c r="N29" s="21">
-        <v>0</v>
-      </c>
-      <c r="O29" s="21">
-        <v>0</v>
-      </c>
-      <c r="P29" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="21">
-        <v>0</v>
-      </c>
-      <c r="R29" s="21">
-        <v>0</v>
-      </c>
-      <c r="S29" s="21">
+      <c r="N29" s="24">
+        <v>0</v>
+      </c>
+      <c r="O29" s="24">
+        <v>0</v>
+      </c>
+      <c r="P29" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="24">
+        <v>0</v>
+      </c>
+      <c r="R29" s="24">
+        <v>0</v>
+      </c>
+      <c r="S29" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="37" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
       <c r="I33" s="3"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -2394,193 +2397,193 @@
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="3"/>
       <c r="J34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="21" t="s">
+      <c r="K34" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L34" s="21">
-        <v>0</v>
-      </c>
-      <c r="M34" s="21">
-        <v>0</v>
-      </c>
-      <c r="N34" s="21">
-        <v>0</v>
-      </c>
-      <c r="O34" s="21">
-        <v>0</v>
-      </c>
-      <c r="P34" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="21">
-        <v>0</v>
-      </c>
-      <c r="R34" s="21">
+      <c r="L34" s="24">
+        <v>0</v>
+      </c>
+      <c r="M34" s="24">
+        <v>0</v>
+      </c>
+      <c r="N34" s="24">
+        <v>0</v>
+      </c>
+      <c r="O34" s="24">
+        <v>0</v>
+      </c>
+      <c r="P34" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="24">
+        <v>0</v>
+      </c>
+      <c r="R34" s="24">
         <v>1</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="3"/>
       <c r="J35" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="3"/>
       <c r="J36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39"/>
       <c r="I37" s="3"/>
       <c r="J37" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="3"/>
       <c r="J38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="3"/>
       <c r="J39" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
+        <v>24</v>
+      </c>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="18" t="s">
         <v>129</v>
       </c>
@@ -2590,10 +2593,10 @@
       <c r="D40" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="32"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
       <c r="I40" s="3"/>
       <c r="J40" s="12" t="s">
         <v>36</v>
@@ -2601,26 +2604,26 @@
       <c r="K40" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="37" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="39"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="45"/>
       <c r="I41" s="3"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -2634,217 +2637,217 @@
       <c r="S41" s="6"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="26"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="40" t="s">
+      <c r="J42" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="K42" s="21" t="s">
+      <c r="K42" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L42" s="21">
-        <v>0</v>
-      </c>
-      <c r="M42" s="21">
-        <v>0</v>
-      </c>
-      <c r="N42" s="21">
-        <v>0</v>
-      </c>
-      <c r="O42" s="21" t="s">
+      <c r="L42" s="24">
+        <v>0</v>
+      </c>
+      <c r="M42" s="24">
+        <v>0</v>
+      </c>
+      <c r="N42" s="24">
+        <v>0</v>
+      </c>
+      <c r="O42" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="P42" s="21">
+      <c r="P42" s="24">
         <v>1</v>
       </c>
-      <c r="Q42" s="21">
-        <v>0</v>
-      </c>
-      <c r="R42" s="21">
+      <c r="Q42" s="24">
+        <v>0</v>
+      </c>
+      <c r="R42" s="24">
         <v>1</v>
       </c>
-      <c r="S42" s="21">
+      <c r="S42" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="39"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="39"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="39"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="29"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="39"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="32"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="37" t="s">
+      <c r="A49" s="25"/>
+      <c r="B49" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="39"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="45"/>
       <c r="I49" s="3"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -2858,155 +2861,155 @@
       <c r="S49" s="6"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E50" s="21" t="s">
+      <c r="E50" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="25"/>
-      <c r="H50" s="26"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="21" t="s">
+      <c r="J50" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="K50" s="21" t="s">
+      <c r="K50" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L50" s="21">
-        <v>0</v>
-      </c>
-      <c r="M50" s="21">
-        <v>0</v>
-      </c>
-      <c r="N50" s="21">
-        <v>0</v>
-      </c>
-      <c r="O50" s="21">
-        <v>0</v>
-      </c>
-      <c r="P50" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="21">
+      <c r="L50" s="24">
+        <v>0</v>
+      </c>
+      <c r="M50" s="24">
+        <v>0</v>
+      </c>
+      <c r="N50" s="24">
+        <v>0</v>
+      </c>
+      <c r="O50" s="24">
+        <v>0</v>
+      </c>
+      <c r="P50" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="24">
         <v>1</v>
       </c>
-      <c r="R50" s="21">
+      <c r="R50" s="24">
         <v>1</v>
       </c>
-      <c r="S50" s="21">
+      <c r="S50" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="29"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="39"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="29"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="39"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="29"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="39"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="11" t="s">
         <v>113</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="32"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="42"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
@@ -3430,6 +3433,127 @@
     </row>
   </sheetData>
   <mergeCells count="145">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="G3:G10"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="F34:H40"/>
+    <mergeCell ref="E34:E40"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="D26:H27"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="M12:M17"/>
+    <mergeCell ref="O12:O17"/>
+    <mergeCell ref="P12:P17"/>
+    <mergeCell ref="Q12:Q17"/>
+    <mergeCell ref="N12:N17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="S3:S10"/>
+    <mergeCell ref="K3:K10"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="F12:F17"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="L3:L10"/>
+    <mergeCell ref="M3:M10"/>
+    <mergeCell ref="O3:O10"/>
+    <mergeCell ref="P3:P10"/>
+    <mergeCell ref="Q3:Q10"/>
+    <mergeCell ref="R3:R10"/>
+    <mergeCell ref="N3:N10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="J12:J17"/>
+    <mergeCell ref="L12:L17"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R12:R17"/>
+    <mergeCell ref="S12:S17"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="S29:S32"/>
+    <mergeCell ref="L29:L32"/>
+    <mergeCell ref="M29:M32"/>
+    <mergeCell ref="N29:N32"/>
+    <mergeCell ref="O29:O32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F29:H32"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="P29:P32"/>
+    <mergeCell ref="Q29:Q32"/>
+    <mergeCell ref="R29:R32"/>
+    <mergeCell ref="L34:L40"/>
+    <mergeCell ref="M34:M40"/>
+    <mergeCell ref="N34:N40"/>
+    <mergeCell ref="O34:O40"/>
+    <mergeCell ref="P34:P40"/>
+    <mergeCell ref="Q34:Q40"/>
+    <mergeCell ref="R34:R40"/>
+    <mergeCell ref="S34:S40"/>
+    <mergeCell ref="F50:H54"/>
+    <mergeCell ref="J50:J54"/>
+    <mergeCell ref="K50:K54"/>
+    <mergeCell ref="L50:L54"/>
+    <mergeCell ref="O42:O48"/>
+    <mergeCell ref="P42:P48"/>
+    <mergeCell ref="Q42:Q48"/>
+    <mergeCell ref="R42:R48"/>
+    <mergeCell ref="S42:S48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="F42:H48"/>
+    <mergeCell ref="J42:J48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="L42:L48"/>
+    <mergeCell ref="M42:M48"/>
+    <mergeCell ref="N42:N48"/>
+    <mergeCell ref="K34:K39"/>
     <mergeCell ref="O24:O25"/>
     <mergeCell ref="P24:P25"/>
     <mergeCell ref="Q24:Q25"/>
@@ -3454,127 +3578,6 @@
     <mergeCell ref="R50:R54"/>
     <mergeCell ref="D50:D54"/>
     <mergeCell ref="E50:E54"/>
-    <mergeCell ref="S34:S40"/>
-    <mergeCell ref="F50:H54"/>
-    <mergeCell ref="J50:J54"/>
-    <mergeCell ref="K50:K54"/>
-    <mergeCell ref="L50:L54"/>
-    <mergeCell ref="O42:O48"/>
-    <mergeCell ref="P42:P48"/>
-    <mergeCell ref="Q42:Q48"/>
-    <mergeCell ref="R42:R48"/>
-    <mergeCell ref="S42:S48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="F42:H48"/>
-    <mergeCell ref="J42:J48"/>
-    <mergeCell ref="K42:K48"/>
-    <mergeCell ref="L42:L48"/>
-    <mergeCell ref="M42:M48"/>
-    <mergeCell ref="N42:N48"/>
-    <mergeCell ref="K34:K39"/>
-    <mergeCell ref="P29:P32"/>
-    <mergeCell ref="Q29:Q32"/>
-    <mergeCell ref="R29:R32"/>
-    <mergeCell ref="L34:L40"/>
-    <mergeCell ref="M34:M40"/>
-    <mergeCell ref="N34:N40"/>
-    <mergeCell ref="O34:O40"/>
-    <mergeCell ref="P34:P40"/>
-    <mergeCell ref="Q34:Q40"/>
-    <mergeCell ref="R34:R40"/>
-    <mergeCell ref="S29:S32"/>
-    <mergeCell ref="L29:L32"/>
-    <mergeCell ref="M29:M32"/>
-    <mergeCell ref="N29:N32"/>
-    <mergeCell ref="O29:O32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F29:H32"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R12:R17"/>
-    <mergeCell ref="S12:S17"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="J12:J17"/>
-    <mergeCell ref="L12:L17"/>
-    <mergeCell ref="M12:M17"/>
-    <mergeCell ref="O12:O17"/>
-    <mergeCell ref="P12:P17"/>
-    <mergeCell ref="Q12:Q17"/>
-    <mergeCell ref="N12:N17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="S3:S10"/>
-    <mergeCell ref="K3:K10"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="F12:F17"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="L3:L10"/>
-    <mergeCell ref="M3:M10"/>
-    <mergeCell ref="O3:O10"/>
-    <mergeCell ref="P3:P10"/>
-    <mergeCell ref="Q3:Q10"/>
-    <mergeCell ref="R3:R10"/>
-    <mergeCell ref="N3:N10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="G3:G10"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="F34:H40"/>
-    <mergeCell ref="E34:E40"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="D26:H27"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="D34:D39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
